--- a/biology/Zoologie/Caecosphaeroma/Caecosphaeroma.xlsx
+++ b/biology/Zoologie/Caecosphaeroma/Caecosphaeroma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caecosphaeroma est un genre de crustacés isopodes présents dans les milieux cavernicoles et interstitiels.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils mesurent de 2  à   20 mm environ pour une largeur d'environ 1  à   6 mm. Leur corps, de couleur blanchâtre, est mince et convexe. Ils ont la capacité de volvation, c'est-à-dire de se rouler en boule pour se protéger, se reposer ou dormir. De plus, lors de l'accouplement, le mâle et la femelle s'associent en formant deux sphères concentriques. Les antennes et les pattes portent de nombreux poils tactiles assez allongés.
-Selon Armand Viré[1], les Caecosphaeroma proviennent d'ancêtres marins qui auraient remonté le cours des rivières pour arriver aux eaux souterraines où la stabilité du milieu (température, dureté, etc.) aurait favorisé leur survivance alors que des changements climatiques faisaient disparaître l'espèce mère dont on retrouve des fossiles dans les couches géologiques.
+Selon Armand Viré, les Caecosphaeroma proviennent d'ancêtres marins qui auraient remonté le cours des rivières pour arriver aux eaux souterraines où la stabilité du milieu (température, dureté, etc.) aurait favorisé leur survivance alors que des changements climatiques faisaient disparaître l'espèce mère dont on retrouve des fossiles dans les couches géologiques.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caecosphaeroma sont anophtalmiques, c'est-à-dire qu'ils ont perdu leurs yeux - comme beaucoup d'autres espèces cavernicoles strictes, au cours de l'évolution. Néanmoins ils sont sensibles à la lumière qui leur est désagréable.
-Bien que vivant dans des eaux souterraines de température moyenne de l'ordre de 11 °C, ils sont capables de supporter des températures plus élevées, de l'ordre de 20 °C[2]. Ils ne réagissent pas au bruit ou aux mouvements de l'eau[3].
+Bien que vivant dans des eaux souterraines de température moyenne de l'ordre de 11 °C, ils sont capables de supporter des températures plus élevées, de l'ordre de 20 °C. Ils ne réagissent pas au bruit ou aux mouvements de l'eau.
 Les Caecosphaeroma sont ovovivipares. Ils se nourrissent des débris organiques contenus dans la vase ou déposés sur le fond.
 Dans le milieu souterrain on les rencontre fréquemment avec Niphargus verei qui est leur prédateur.
 </t>
@@ -577,7 +593,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On distingue quelques espèces endémiques qui ont évolué dans des groupes séparés. La plupart ont donc un statut de conservation classé « vulnérable ».
 Caecosphaeroma bericum Fabiani, 1901, reclassé Vireia berica Dollfus &amp; Viré, 1904
